--- a/Final.xlsx
+++ b/Final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -44,6 +44,303 @@
   </x:si>
   <x:si>
     <x:t>ReasonToReject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_1.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Needs to Login to MSDynamics, from the browser with correct credentials</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Open Url</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Url should be launched</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for required field AccountId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">enter Username </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Name should be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click Next</x:t>
+  </x:si>
+  <x:si>
+    <x:t>It should click to next page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for required field OwningBusinessUnit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>enter password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Password should be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>click on login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sign in should be clicked</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on No</x:t>
+  </x:si>
+  <x:si>
+    <x:t>popup should get close</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click to Close</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Display should get close</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Navigate to sales dropdown button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dropdown should get open</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select Accounts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accounts page should get open</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>new account page should get open</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Enter Account name </x:t>
+  </x:si>
+  <x:si>
+    <x:t>account name should be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter Phone Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phone Number should be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter Fax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fax should be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter Ticker Symbol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ticker Symbol should be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter Website</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Websiteshould be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Assistant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assistant should be clicked</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Phone call</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phone call should be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter Subject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Subject  should be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description should be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter Due</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Due should be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter Call with</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Call with should be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click ok</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ok should be clicked</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Finish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Finish should be clicked</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on save button </x:t>
+  </x:si>
+  <x:si>
+    <x:t>save should be Clicked</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select the account to view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>account should be open</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edit Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Account tab, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Account Details page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>select chech box</x:t>
+  </x:si>
+  <x:si>
+    <x:t>checked</x:t>
+  </x:si>
+  <x:si>
+    <x:t>and select the existing Account to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on to the Delete to Delete the Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Confirm / OK to delete the Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the Account is deleted</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -127,8 +424,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J2" totalsRowShown="0">
-  <x:autoFilter ref="A1:J2"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J61" totalsRowShown="0">
+  <x:autoFilter ref="A1:J61"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -433,20 +730,20 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J2"/>
+  <x:dimension ref="A1:J61"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.550625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="14.270625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="16.550625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="71.980624999999989" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="46.980625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="12.550625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="16.700625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="41.700625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="93.550625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -484,16 +781,1124 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:10">
-      <x:c r="A2" s="0" t="s"/>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
+      <x:c r="A2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
-      <x:c r="G2" s="0" t="s"/>
-      <x:c r="H2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="I2" s="0" t="s"/>
       <x:c r="J2" s="0" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:10">
+      <x:c r="A3" s="0" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s"/>
+      <x:c r="J3" s="0" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:10">
+      <x:c r="A4" s="0" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s"/>
+      <x:c r="F4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s"/>
+      <x:c r="J4" s="0" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:10">
+      <x:c r="A5" s="0" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s"/>
+      <x:c r="J5" s="0" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:10">
+      <x:c r="A6" s="0" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s"/>
+      <x:c r="F6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s"/>
+      <x:c r="J6" s="0" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:10">
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s"/>
+      <x:c r="F7" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s"/>
+      <x:c r="J7" s="0" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:10">
+      <x:c r="A8" s="0" t="s"/>
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s"/>
+      <x:c r="F8" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s"/>
+      <x:c r="J8" s="0" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:10">
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s"/>
+      <x:c r="F9" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s"/>
+      <x:c r="J9" s="0" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s"/>
+      <x:c r="F10" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:10">
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s"/>
+      <x:c r="F11" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
+      <x:c r="J11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:10">
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="B12" s="0" t="s"/>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s"/>
+      <x:c r="F12" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:10">
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s"/>
+      <x:c r="F13" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:10">
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s"/>
+      <x:c r="F14" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:10">
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
+      <x:c r="E15" s="0" t="s"/>
+      <x:c r="F15" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:10">
+      <x:c r="A16" s="0" t="s"/>
+      <x:c r="B16" s="0" t="s"/>
+      <x:c r="C16" s="0" t="s"/>
+      <x:c r="D16" s="0" t="s"/>
+      <x:c r="E16" s="0" t="s"/>
+      <x:c r="F16" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:10">
+      <x:c r="A17" s="0" t="s"/>
+      <x:c r="B17" s="0" t="s"/>
+      <x:c r="C17" s="0" t="s"/>
+      <x:c r="D17" s="0" t="s"/>
+      <x:c r="E17" s="0" t="s"/>
+      <x:c r="F17" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s"/>
+      <x:c r="J17" s="0" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:10">
+      <x:c r="A18" s="0" t="s"/>
+      <x:c r="B18" s="0" t="s"/>
+      <x:c r="C18" s="0" t="s"/>
+      <x:c r="D18" s="0" t="s"/>
+      <x:c r="E18" s="0" t="s"/>
+      <x:c r="F18" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s"/>
+      <x:c r="J18" s="0" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:10">
+      <x:c r="A19" s="0" t="s"/>
+      <x:c r="B19" s="0" t="s"/>
+      <x:c r="C19" s="0" t="s"/>
+      <x:c r="D19" s="0" t="s"/>
+      <x:c r="E19" s="0" t="s"/>
+      <x:c r="F19" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s"/>
+      <x:c r="J19" s="0" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:10">
+      <x:c r="A20" s="0" t="s"/>
+      <x:c r="B20" s="0" t="s"/>
+      <x:c r="C20" s="0" t="s"/>
+      <x:c r="D20" s="0" t="s"/>
+      <x:c r="E20" s="0" t="s"/>
+      <x:c r="F20" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s"/>
+      <x:c r="J20" s="0" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:10">
+      <x:c r="A21" s="0" t="s"/>
+      <x:c r="B21" s="0" t="s"/>
+      <x:c r="C21" s="0" t="s"/>
+      <x:c r="D21" s="0" t="s"/>
+      <x:c r="E21" s="0" t="s"/>
+      <x:c r="F21" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s"/>
+      <x:c r="J21" s="0" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:10">
+      <x:c r="A22" s="0" t="s"/>
+      <x:c r="B22" s="0" t="s"/>
+      <x:c r="C22" s="0" t="s"/>
+      <x:c r="D22" s="0" t="s"/>
+      <x:c r="E22" s="0" t="s"/>
+      <x:c r="F22" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s"/>
+      <x:c r="J22" s="0" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:10">
+      <x:c r="A23" s="0" t="s"/>
+      <x:c r="B23" s="0" t="s"/>
+      <x:c r="C23" s="0" t="s"/>
+      <x:c r="D23" s="0" t="s"/>
+      <x:c r="E23" s="0" t="s"/>
+      <x:c r="F23" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s"/>
+      <x:c r="J23" s="0" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:10">
+      <x:c r="A24" s="0" t="s"/>
+      <x:c r="B24" s="0" t="s"/>
+      <x:c r="C24" s="0" t="s"/>
+      <x:c r="D24" s="0" t="s"/>
+      <x:c r="E24" s="0" t="s"/>
+      <x:c r="F24" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s"/>
+      <x:c r="J24" s="0" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:10">
+      <x:c r="A25" s="0" t="s"/>
+      <x:c r="B25" s="0" t="s"/>
+      <x:c r="C25" s="0" t="s"/>
+      <x:c r="D25" s="0" t="s"/>
+      <x:c r="E25" s="0" t="s"/>
+      <x:c r="F25" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s"/>
+      <x:c r="J25" s="0" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:10">
+      <x:c r="A26" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s"/>
+      <x:c r="F26" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s"/>
+      <x:c r="J26" s="0" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:10">
+      <x:c r="A27" s="0" t="s"/>
+      <x:c r="B27" s="0" t="s"/>
+      <x:c r="C27" s="0" t="s"/>
+      <x:c r="D27" s="0" t="s"/>
+      <x:c r="E27" s="0" t="s"/>
+      <x:c r="F27" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s"/>
+      <x:c r="J27" s="0" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:10">
+      <x:c r="A28" s="0" t="s"/>
+      <x:c r="B28" s="0" t="s"/>
+      <x:c r="C28" s="0" t="s"/>
+      <x:c r="D28" s="0" t="s"/>
+      <x:c r="E28" s="0" t="s"/>
+      <x:c r="F28" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s"/>
+      <x:c r="J28" s="0" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:10">
+      <x:c r="A29" s="0" t="s"/>
+      <x:c r="B29" s="0" t="s"/>
+      <x:c r="C29" s="0" t="s"/>
+      <x:c r="D29" s="0" t="s"/>
+      <x:c r="E29" s="0" t="s"/>
+      <x:c r="F29" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s"/>
+      <x:c r="J29" s="0" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:10">
+      <x:c r="A30" s="0" t="s"/>
+      <x:c r="B30" s="0" t="s"/>
+      <x:c r="C30" s="0" t="s"/>
+      <x:c r="D30" s="0" t="s"/>
+      <x:c r="E30" s="0" t="s"/>
+      <x:c r="F30" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s"/>
+      <x:c r="J30" s="0" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:10">
+      <x:c r="A31" s="0" t="s"/>
+      <x:c r="B31" s="0" t="s"/>
+      <x:c r="C31" s="0" t="s"/>
+      <x:c r="D31" s="0" t="s"/>
+      <x:c r="E31" s="0" t="s"/>
+      <x:c r="F31" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s"/>
+      <x:c r="J31" s="0" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:10">
+      <x:c r="A32" s="0" t="s"/>
+      <x:c r="B32" s="0" t="s"/>
+      <x:c r="C32" s="0" t="s"/>
+      <x:c r="D32" s="0" t="s"/>
+      <x:c r="E32" s="0" t="s"/>
+      <x:c r="F32" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="I32" s="0" t="s"/>
+      <x:c r="J32" s="0" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:10">
+      <x:c r="A33" s="0" t="s"/>
+      <x:c r="B33" s="0" t="s"/>
+      <x:c r="C33" s="0" t="s"/>
+      <x:c r="D33" s="0" t="s"/>
+      <x:c r="E33" s="0" t="s"/>
+      <x:c r="F33" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s"/>
+      <x:c r="J33" s="0" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:10">
+      <x:c r="A34" s="0" t="s"/>
+      <x:c r="B34" s="0" t="s"/>
+      <x:c r="C34" s="0" t="s"/>
+      <x:c r="D34" s="0" t="s"/>
+      <x:c r="E34" s="0" t="s"/>
+      <x:c r="F34" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s"/>
+      <x:c r="J34" s="0" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:10">
+      <x:c r="A35" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s"/>
+      <x:c r="F35" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="s"/>
+      <x:c r="J35" s="0" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:10">
+      <x:c r="A36" s="0" t="s"/>
+      <x:c r="B36" s="0" t="s"/>
+      <x:c r="C36" s="0" t="s"/>
+      <x:c r="D36" s="0" t="s"/>
+      <x:c r="E36" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="s"/>
+      <x:c r="J36" s="0" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:10">
+      <x:c r="A37" s="0" t="s"/>
+      <x:c r="B37" s="0" t="s"/>
+      <x:c r="C37" s="0" t="s"/>
+      <x:c r="D37" s="0" t="s"/>
+      <x:c r="E37" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="s"/>
+      <x:c r="J37" s="0" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:10">
+      <x:c r="A38" s="0" t="s"/>
+      <x:c r="B38" s="0" t="s"/>
+      <x:c r="C38" s="0" t="s"/>
+      <x:c r="D38" s="0" t="s"/>
+      <x:c r="E38" s="0" t="s"/>
+      <x:c r="F38" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="s"/>
+      <x:c r="J38" s="0" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:10">
+      <x:c r="A39" s="0" t="s"/>
+      <x:c r="B39" s="0" t="s"/>
+      <x:c r="C39" s="0" t="s"/>
+      <x:c r="D39" s="0" t="s"/>
+      <x:c r="E39" s="0" t="s"/>
+      <x:c r="F39" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I39" s="0" t="s"/>
+      <x:c r="J39" s="0" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:10">
+      <x:c r="A40" s="0" t="s"/>
+      <x:c r="B40" s="0" t="s"/>
+      <x:c r="C40" s="0" t="s"/>
+      <x:c r="D40" s="0" t="s"/>
+      <x:c r="E40" s="0" t="s"/>
+      <x:c r="F40" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="s"/>
+      <x:c r="J40" s="0" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:10">
+      <x:c r="A41" s="0" t="s"/>
+      <x:c r="B41" s="0" t="s"/>
+      <x:c r="C41" s="0" t="s"/>
+      <x:c r="D41" s="0" t="s"/>
+      <x:c r="E41" s="0" t="s"/>
+      <x:c r="F41" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s"/>
+      <x:c r="J41" s="0" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:10">
+      <x:c r="A42" s="0" t="s"/>
+      <x:c r="B42" s="0" t="s"/>
+      <x:c r="C42" s="0" t="s"/>
+      <x:c r="D42" s="0" t="s"/>
+      <x:c r="E42" s="0" t="s"/>
+      <x:c r="F42" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s"/>
+      <x:c r="J42" s="0" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:10">
+      <x:c r="A43" s="0" t="s"/>
+      <x:c r="B43" s="0" t="s"/>
+      <x:c r="C43" s="0" t="s"/>
+      <x:c r="D43" s="0" t="s"/>
+      <x:c r="E43" s="0" t="s"/>
+      <x:c r="F43" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="s"/>
+      <x:c r="J43" s="0" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:10">
+      <x:c r="A44" s="0" t="s"/>
+      <x:c r="B44" s="0" t="s"/>
+      <x:c r="C44" s="0" t="s"/>
+      <x:c r="D44" s="0" t="s"/>
+      <x:c r="E44" s="0" t="s"/>
+      <x:c r="F44" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s"/>
+      <x:c r="J44" s="0" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:10">
+      <x:c r="A45" s="0" t="s"/>
+      <x:c r="B45" s="0" t="s"/>
+      <x:c r="C45" s="0" t="s"/>
+      <x:c r="D45" s="0" t="s"/>
+      <x:c r="E45" s="0" t="s"/>
+      <x:c r="F45" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s"/>
+      <x:c r="J45" s="0" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:10">
+      <x:c r="A46" s="0" t="s"/>
+      <x:c r="B46" s="0" t="s"/>
+      <x:c r="C46" s="0" t="s"/>
+      <x:c r="D46" s="0" t="s"/>
+      <x:c r="E46" s="0" t="s"/>
+      <x:c r="F46" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s"/>
+      <x:c r="J46" s="0" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:10">
+      <x:c r="A47" s="0" t="s"/>
+      <x:c r="B47" s="0" t="s"/>
+      <x:c r="C47" s="0" t="s"/>
+      <x:c r="D47" s="0" t="s"/>
+      <x:c r="E47" s="0" t="s"/>
+      <x:c r="F47" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s"/>
+      <x:c r="J47" s="0" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:10">
+      <x:c r="A48" s="0" t="s"/>
+      <x:c r="B48" s="0" t="s"/>
+      <x:c r="C48" s="0" t="s"/>
+      <x:c r="D48" s="0" t="s"/>
+      <x:c r="E48" s="0" t="s"/>
+      <x:c r="F48" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s"/>
+      <x:c r="J48" s="0" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:10">
+      <x:c r="A49" s="0" t="s"/>
+      <x:c r="B49" s="0" t="s"/>
+      <x:c r="C49" s="0" t="s"/>
+      <x:c r="D49" s="0" t="s"/>
+      <x:c r="E49" s="0" t="s"/>
+      <x:c r="F49" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s"/>
+      <x:c r="J49" s="0" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:10">
+      <x:c r="A50" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s"/>
+      <x:c r="F50" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s"/>
+      <x:c r="J50" s="0" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:10">
+      <x:c r="A51" s="0" t="s"/>
+      <x:c r="B51" s="0" t="s"/>
+      <x:c r="C51" s="0" t="s"/>
+      <x:c r="D51" s="0" t="s"/>
+      <x:c r="E51" s="0" t="s"/>
+      <x:c r="F51" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s"/>
+      <x:c r="J51" s="0" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:10">
+      <x:c r="A52" s="0" t="s"/>
+      <x:c r="B52" s="0" t="s"/>
+      <x:c r="C52" s="0" t="s"/>
+      <x:c r="D52" s="0" t="s"/>
+      <x:c r="E52" s="0" t="s"/>
+      <x:c r="F52" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s"/>
+      <x:c r="J52" s="0" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:10">
+      <x:c r="A53" s="0" t="s"/>
+      <x:c r="B53" s="0" t="s"/>
+      <x:c r="C53" s="0" t="s"/>
+      <x:c r="D53" s="0" t="s"/>
+      <x:c r="E53" s="0" t="s"/>
+      <x:c r="F53" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I53" s="0" t="s"/>
+      <x:c r="J53" s="0" t="s"/>
+    </x:row>
+    <x:row r="54" spans="1:10">
+      <x:c r="A54" s="0" t="s"/>
+      <x:c r="B54" s="0" t="s"/>
+      <x:c r="C54" s="0" t="s"/>
+      <x:c r="D54" s="0" t="s"/>
+      <x:c r="E54" s="0" t="s"/>
+      <x:c r="F54" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s"/>
+      <x:c r="J54" s="0" t="s"/>
+    </x:row>
+    <x:row r="55" spans="1:10">
+      <x:c r="A55" s="0" t="s"/>
+      <x:c r="B55" s="0" t="s"/>
+      <x:c r="C55" s="0" t="s"/>
+      <x:c r="D55" s="0" t="s"/>
+      <x:c r="E55" s="0" t="s"/>
+      <x:c r="F55" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="s"/>
+      <x:c r="J55" s="0" t="s"/>
+    </x:row>
+    <x:row r="56" spans="1:10">
+      <x:c r="A56" s="0" t="s"/>
+      <x:c r="B56" s="0" t="s"/>
+      <x:c r="C56" s="0" t="s"/>
+      <x:c r="D56" s="0" t="s"/>
+      <x:c r="E56" s="0" t="s"/>
+      <x:c r="F56" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s"/>
+      <x:c r="J56" s="0" t="s"/>
+    </x:row>
+    <x:row r="57" spans="1:10">
+      <x:c r="A57" s="0" t="s"/>
+      <x:c r="B57" s="0" t="s"/>
+      <x:c r="C57" s="0" t="s"/>
+      <x:c r="D57" s="0" t="s"/>
+      <x:c r="E57" s="0" t="s"/>
+      <x:c r="F57" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="I57" s="0" t="s"/>
+      <x:c r="J57" s="0" t="s"/>
+    </x:row>
+    <x:row r="58" spans="1:10">
+      <x:c r="A58" s="0" t="s"/>
+      <x:c r="B58" s="0" t="s"/>
+      <x:c r="C58" s="0" t="s"/>
+      <x:c r="D58" s="0" t="s"/>
+      <x:c r="E58" s="0" t="s"/>
+      <x:c r="F58" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="s"/>
+      <x:c r="J58" s="0" t="s"/>
+    </x:row>
+    <x:row r="59" spans="1:10">
+      <x:c r="A59" s="0" t="s"/>
+      <x:c r="B59" s="0" t="s"/>
+      <x:c r="C59" s="0" t="s"/>
+      <x:c r="D59" s="0" t="s"/>
+      <x:c r="E59" s="0" t="s"/>
+      <x:c r="F59" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="I59" s="0" t="s"/>
+      <x:c r="J59" s="0" t="s"/>
+    </x:row>
+    <x:row r="60" spans="1:10">
+      <x:c r="A60" s="0" t="s"/>
+      <x:c r="B60" s="0" t="s"/>
+      <x:c r="C60" s="0" t="s"/>
+      <x:c r="D60" s="0" t="s"/>
+      <x:c r="E60" s="0" t="s"/>
+      <x:c r="F60" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="I60" s="0" t="s"/>
+      <x:c r="J60" s="0" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:10">
+      <x:c r="A61" s="0" t="s"/>
+      <x:c r="B61" s="0" t="s"/>
+      <x:c r="C61" s="0" t="s"/>
+      <x:c r="D61" s="0" t="s"/>
+      <x:c r="E61" s="0" t="s"/>
+      <x:c r="F61" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="I61" s="0" t="s"/>
+      <x:c r="J61" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/Final.xlsx
+++ b/Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus14\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9288448-E376-44EC-99DE-B6854E0E91DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15074BD7-36C7-4F04-9C80-28B6773D0168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="107">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -741,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,6 +816,9 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
+      <c r="I2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
@@ -977,7 +980,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>61</v>
       </c>
@@ -988,7 +991,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>64</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>67</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>70</v>
       </c>
@@ -1021,7 +1024,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>73</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>76</v>
       </c>
@@ -1043,7 +1046,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>79</v>
       </c>
@@ -1054,7 +1057,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>82</v>
       </c>
@@ -1065,7 +1068,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -1090,8 +1093,11 @@
       <c r="H25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>18</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>21</v>
       </c>
@@ -1113,7 +1119,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>25</v>
       </c>
@@ -1124,7 +1130,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>28</v>
       </c>
@@ -1135,7 +1141,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>31</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>34</v>
       </c>
@@ -1157,7 +1163,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>37</v>
       </c>
@@ -1168,7 +1174,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -1193,8 +1199,11 @@
       <c r="H33" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>17</v>
       </c>
@@ -1208,7 +1217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>24</v>
       </c>
@@ -1222,7 +1231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>25</v>
       </c>
@@ -1233,7 +1242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>28</v>
       </c>
@@ -1244,7 +1253,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>31</v>
       </c>
@@ -1255,7 +1264,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>34</v>
       </c>
@@ -1266,7 +1275,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>37</v>
       </c>
@@ -1277,7 +1286,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>40</v>
       </c>
@@ -1288,7 +1297,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>43</v>
       </c>
@@ -1299,7 +1308,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>46</v>
       </c>
@@ -1310,7 +1319,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>49</v>
       </c>
@@ -1321,7 +1330,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
         <v>52</v>
       </c>
@@ -1332,7 +1341,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>55</v>
       </c>
@@ -1343,7 +1352,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>58</v>
       </c>
@@ -1354,7 +1363,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -1378,6 +1387,9 @@
       </c>
       <c r="H48" t="s">
         <v>16</v>
+      </c>
+      <c r="I48" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="6:8" x14ac:dyDescent="0.25">
